--- a/rss_config/rss_list.xlsx
+++ b/rss_config/rss_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MoneyStorage\docker\YahooFinance_RSS_NewsCrawler_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dracoid/Desktop/PythonProjects/FinancialNewsCrawler_postgre/rss_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCBAB58-64EC-4716-B8CB-B7CEFA1F8E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59545DC7-A227-BC47-B7CA-03CD588F596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>category</t>
   </si>
@@ -182,6 +182,12 @@
   <si>
     <t>Fermi America LLC</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPNG</t>
+  </si>
+  <si>
+    <t>Coupang</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -200,13 +206,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -254,7 +260,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,20 +562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -591,7 +597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -602,7 +608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -613,7 +619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -624,7 +630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -635,7 +641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -646,7 +652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -657,7 +663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -668,7 +674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -679,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -690,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -701,7 +707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -712,7 +718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -723,7 +729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -734,7 +740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -745,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -756,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -767,7 +773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -778,7 +784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -789,7 +795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -800,7 +806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -809,6 +815,17 @@
       </c>
       <c r="C22" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
